--- a/html/cms/static/file/员工档案模板.xlsx
+++ b/html/cms/static/file/员工档案模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>分类名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,19 +30,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>题名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记部门</t>
+    <t>工作总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XZ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划财务科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案分类名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：标题标红的字段必填，参考数据请勿删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,26 +105,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,21 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,67 +424,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="I1"/>
     </row>
-    <row r="2" spans="1:11" ht="26.45" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="2"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
